--- a/biology/Zoologie/Canthyloscelidae/Canthyloscelidae.xlsx
+++ b/biology/Zoologie/Canthyloscelidae/Canthyloscelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Canthyloscelidae sont une petite famille relique de diptères nématocères proche des Scatopsidae. Elle comprend 15 espèces décrites dans le monde (Nouvelle-Zélande, Amérique du Nord, Amérique du Sud, Japon, Russie), dont 3 présentes en Europe, plus une espèce fossile du Jurassique moyen. Ces moucherons, rarement capturés, sont des indicateurs de vieilles forêts proches de l'état naturel. Les larves sont saproxylobiontes, se développant dans le bois en décomposition.
 </t>
@@ -511,7 +523,9 @@
           <t>Listes des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après The BioSystematic Database of World Diptera :
 Canthyloscelis Edwards, 1922
